--- a/IMDB/IMDB Movie Ratings.xlsx
+++ b/IMDB/IMDB Movie Ratings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8676"/>
+    <workbookView xWindow="132" yWindow="528" windowWidth="22716" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Top rated Movies" sheetId="1" r:id="rId1"/>
@@ -283,15 +283,15 @@
     <t>1977</t>
   </si>
   <si>
+    <t>8.5</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
     <t>Terminator 2: Judgment Day</t>
   </si>
   <si>
-    <t>8.5</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -487,21 +487,21 @@
     <t>55</t>
   </si>
   <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>Raiders of the Lost Ark</t>
   </si>
   <si>
     <t>1981</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Django Unchained</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -532,18 +532,18 @@
     <t>61</t>
   </si>
   <si>
+    <t>The Shining</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>The Great Dictator</t>
   </si>
   <si>
     <t>1940</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>The Shining</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -607,36 +607,36 @@
     <t>71</t>
   </si>
   <si>
+    <t>Inglourious Basterds</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>Amadeus</t>
   </si>
   <si>
     <t>1984</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Inglourious Basterds</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>Joker</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Coco</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -691,99 +691,99 @@
     <t>83</t>
   </si>
   <si>
+    <t>Requiem for a Dream</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Singin' in the Rain</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>3 Idiots</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Tengoku to jigoku</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Capharnaüm</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode VI - Return of the Jedi</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Eternal Sunshine of the Spotless Mind</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Reservoir Dogs</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Jagten</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Idi i smotri</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>Top Gun: Maverick</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Requiem for a Dream</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>3 Idiots</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Singin' in the Rain</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Toy Story 3</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Tengoku to jigoku</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Star Wars: Episode VI - Return of the Jedi</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Capharnaüm</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Eternal Sunshine of the Spotless Mind</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>2001: A Space Odyssey</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Reservoir Dogs</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Jagten</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Idi i smotri</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -796,15 +796,15 @@
     <t>97</t>
   </si>
   <si>
+    <t>Lawrence of Arabia</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>M - Eine Stadt sucht einen Mörder</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Lawrence of Arabia</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -835,24 +835,24 @@
     <t>102</t>
   </si>
   <si>
+    <t>The Apartment</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Ikiru</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>A Clockwork Orange</t>
   </si>
   <si>
     <t>1971</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>The Apartment</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Ikiru</t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
@@ -895,45 +895,45 @@
     <t>110</t>
   </si>
   <si>
+    <t>Incendies</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>The Sting</t>
   </si>
   <si>
     <t>1973</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Incendies</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Up</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
     <t>114</t>
   </si>
   <si>
+    <t>Jodaeiye Nader az Simin</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>Taxi Driver</t>
   </si>
   <si>
     <t>1976</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Jodaeiye Nader az Simin</t>
-  </si>
-  <si>
     <t>116</t>
   </si>
   <si>
@@ -964,21 +964,21 @@
     <t>120</t>
   </si>
   <si>
+    <t>Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Ladri di biciclette</t>
   </si>
   <si>
     <t>1948</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Indiana Jones and the Last Crusade</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
     <t>122</t>
   </si>
   <si>
@@ -1078,15 +1078,15 @@
     <t>135</t>
   </si>
   <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>Ran</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
     <t>137</t>
   </si>
   <si>
@@ -1102,15 +1102,15 @@
     <t>139</t>
   </si>
   <si>
+    <t>The Truman Show</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>There Will Be Blood</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>The Truman Show</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
@@ -1129,28 +1129,34 @@
     <t>Shutter Island</t>
   </si>
   <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Yôjinbô</t>
+  </si>
+  <si>
     <t>8.1</t>
   </si>
   <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Yôjinbô</t>
-  </si>
-  <si>
     <t>145</t>
   </si>
   <si>
+    <t>The Treasure of the Sierra Madre</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
     <t>Monty Python and the Holy Grail</t>
   </si>
   <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>The Treasure of the Sierra Madre</t>
-  </si>
-  <si>
-    <t>147</t>
+    <t>148</t>
   </si>
   <si>
     <t>Spider-Man: No Way Home</t>
@@ -1159,12 +1165,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
     <t>149</t>
   </si>
   <si>
@@ -1180,30 +1180,30 @@
     <t>151</t>
   </si>
   <si>
+    <t>No Country for Old Men</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Kill Bill: Vol. 1</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>No Country for Old Men</t>
-  </si>
-  <si>
     <t>153</t>
   </si>
   <si>
+    <t>The Thing</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>Finding Nemo</t>
   </si>
   <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>The Thing</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
@@ -1225,18 +1225,18 @@
     <t>158</t>
   </si>
   <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>Gone with the Wind</t>
   </si>
   <si>
     <t>1939</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
@@ -1273,15 +1273,15 @@
     <t>165</t>
   </si>
   <si>
+    <t>Three Billboards Outside Ebbing, Missouri</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>The Bridge on the River Kwai</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Three Billboards Outside Ebbing, Missouri</t>
-  </si>
-  <si>
     <t>167</t>
   </si>
   <si>
@@ -1294,27 +1294,27 @@
     <t>168</t>
   </si>
   <si>
+    <t>Prisoners</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>Warrior</t>
   </si>
   <si>
-    <t>169</t>
+    <t>170</t>
   </si>
   <si>
     <t>Fargo</t>
   </si>
   <si>
-    <t>170</t>
+    <t>171</t>
   </si>
   <si>
     <t>Gran Torino</t>
   </si>
   <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Prisoners</t>
-  </si>
-  <si>
     <t>172</t>
   </si>
   <si>
@@ -1357,15 +1357,15 @@
     <t>178</t>
   </si>
   <si>
+    <t>Before Sunrise</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
     <t>On the Waterfront</t>
   </si>
   <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Before Sunrise</t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
@@ -1381,22 +1381,37 @@
     <t>182</t>
   </si>
   <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
     <t>Ben-Hur</t>
   </si>
   <si>
-    <t>183</t>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Gone Girl</t>
+  </si>
+  <si>
+    <t>185</t>
   </si>
   <si>
     <t>Smultronstället</t>
   </si>
   <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Gone Girl</t>
-  </si>
-  <si>
-    <t>185</t>
+    <t>186</t>
+  </si>
+  <si>
+    <t>The General</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t>The Third Man</t>
@@ -1405,22 +1420,19 @@
     <t>1949</t>
   </si>
   <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>The General</t>
-  </si>
-  <si>
-    <t>1926</t>
-  </si>
-  <si>
-    <t>187</t>
+    <t>188</t>
   </si>
   <si>
     <t>The Grand Budapest Hotel</t>
   </si>
   <si>
-    <t>188</t>
+    <t>189</t>
+  </si>
+  <si>
+    <t>In the Name of the Father</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
   <si>
     <t>The Deer Hunter</t>
@@ -1429,18 +1441,6 @@
     <t>1978</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>In the Name of the Father</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Klaus</t>
-  </si>
-  <si>
     <t>191</t>
   </si>
   <si>
@@ -1465,24 +1465,24 @@
     <t>194</t>
   </si>
   <si>
+    <t>Salinui chueok</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
     <t>Sherlock Jr.</t>
   </si>
   <si>
     <t>1924</t>
   </si>
   <si>
-    <t>195</t>
+    <t>196</t>
   </si>
   <si>
     <t>Mr. Smith Goes to Washington</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Salinui chueok</t>
-  </si>
-  <si>
     <t>197</t>
   </si>
   <si>
@@ -1492,27 +1492,27 @@
     <t>198</t>
   </si>
   <si>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Det sjunde inseglet</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Mad Max: Fury Road</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
+    <t>Mary and Max.</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>Room</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Mary and Max.</t>
-  </si>
-  <si>
     <t>202</t>
   </si>
   <si>
@@ -1528,15 +1528,15 @@
     <t>204</t>
   </si>
   <si>
+    <t>Jaws</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
     <t>The Big Lebowski</t>
   </si>
   <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Jaws</t>
-  </si>
-  <si>
     <t>206</t>
   </si>
   <si>
@@ -1546,18 +1546,18 @@
     <t>207</t>
   </si>
   <si>
+    <t>Tôkyô monogatari</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>La passion de Jeanne d'Arc</t>
   </si>
   <si>
     <t>1928</t>
   </si>
   <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Tôkyô monogatari</t>
-  </si>
-  <si>
     <t>209</t>
   </si>
   <si>
@@ -1600,15 +1600,15 @@
     <t>215</t>
   </si>
   <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>Stand by Me</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
     <t>217</t>
   </si>
   <si>
@@ -1624,18 +1624,18 @@
     <t>219</t>
   </si>
   <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Pather Panchali</t>
   </si>
   <si>
     <t>1955</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>221</t>
   </si>
   <si>
@@ -1645,15 +1645,15 @@
     <t>222</t>
   </si>
   <si>
+    <t>Before Sunset</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
     <t>The Wizard of Oz</t>
   </si>
   <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Before Sunset</t>
-  </si>
-  <si>
     <t>224</t>
   </si>
   <si>
@@ -1693,21 +1693,21 @@
     <t>230</t>
   </si>
   <si>
+    <t>La haine</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Hachi: A Dog's Tale</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Jai Bhim</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Hachi: A Dog's Tale</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>La haine</t>
-  </si>
-  <si>
     <t>233</t>
   </si>
   <si>
@@ -1717,27 +1717,27 @@
     <t>234</t>
   </si>
   <si>
+    <t>Babam ve Oglum</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>The Grapes of Wrath</t>
   </si>
   <si>
-    <t>235</t>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Amores perros</t>
+  </si>
+  <si>
+    <t>237</t>
   </si>
   <si>
     <t>Rebecca</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Babam ve Oglum</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Amores perros</t>
-  </si>
-  <si>
     <t>238</t>
   </si>
   <si>
@@ -1750,36 +1750,36 @@
     <t>239</t>
   </si>
   <si>
+    <t>Ah-ga-ssi</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Les quatre cents coups</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>Ah-ga-ssi</t>
-  </si>
-  <si>
     <t>241</t>
   </si>
   <si>
+    <t>The Sound of Music</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>It Happened One Night</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
     <t>Persona</t>
   </si>
   <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>It Happened One Night</t>
-  </si>
-  <si>
-    <t>1934</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>The Sound of Music</t>
-  </si>
-  <si>
     <t>244</t>
   </si>
   <si>
@@ -1795,13 +1795,13 @@
     <t>246</t>
   </si>
   <si>
-    <t>Everything Everywhere All at Once</t>
+    <t>The Iron Giant</t>
   </si>
   <si>
     <t>247</t>
   </si>
   <si>
-    <t>The Iron Giant</t>
+    <t>The Help</t>
   </si>
   <si>
     <t>248</t>
@@ -1813,13 +1813,13 @@
     <t>249</t>
   </si>
   <si>
-    <t>The Help</t>
+    <t>Gandhi</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>Gandhi</t>
+    <t>Dances with Wolves</t>
   </si>
 </sst>
 </file>
@@ -1835,18 +1835,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1861,11 +1855,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2167,29 +2158,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2582,21 +2571,21 @@
         <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,7 +2599,7 @@
         <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,7 +2613,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,7 +2627,7 @@
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,7 +2641,7 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,7 +2655,7 @@
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2694,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,7 +2697,7 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2722,7 +2711,7 @@
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,7 +2725,7 @@
         <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,7 +2739,7 @@
         <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2764,7 +2753,7 @@
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,7 +2767,7 @@
         <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2792,7 +2781,7 @@
         <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2806,7 +2795,7 @@
         <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2820,7 +2809,7 @@
         <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2834,7 +2823,7 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3041,7 +3030,7 @@
         <v>172</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
         <v>138</v>
@@ -3049,13 +3038,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s">
         <v>174</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>175</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
       </c>
       <c r="D63" t="s">
         <v>138</v>
@@ -3153,7 +3142,7 @@
         <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
         <v>184</v>
@@ -3209,7 +3198,7 @@
         <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
@@ -3217,13 +3206,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
         <v>184</v>
@@ -3265,7 +3254,7 @@
         <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
         <v>184</v>
@@ -3307,7 +3296,7 @@
         <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
         <v>184</v>
@@ -3349,7 +3338,7 @@
         <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
         <v>184</v>
@@ -3357,13 +3346,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" t="s">
         <v>227</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>228</v>
-      </c>
-      <c r="C85" t="s">
-        <v>111</v>
       </c>
       <c r="D85" t="s">
         <v>184</v>
@@ -3377,7 +3366,7 @@
         <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3391,7 +3380,7 @@
         <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
         <v>184</v>
@@ -3399,13 +3388,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" t="s">
         <v>234</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>235</v>
-      </c>
-      <c r="C88" t="s">
-        <v>48</v>
       </c>
       <c r="D88" t="s">
         <v>184</v>
@@ -3419,7 +3408,7 @@
         <v>237</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="D89" t="s">
         <v>184</v>
@@ -3427,13 +3416,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" t="s">
         <v>239</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>240</v>
-      </c>
-      <c r="C90" t="s">
-        <v>241</v>
       </c>
       <c r="D90" t="s">
         <v>184</v>
@@ -3441,13 +3430,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" t="s">
         <v>242</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>243</v>
-      </c>
-      <c r="C91" t="s">
-        <v>178</v>
       </c>
       <c r="D91" t="s">
         <v>184</v>
@@ -3461,7 +3450,7 @@
         <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>184</v>
@@ -3469,13 +3458,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
         <v>247</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>248</v>
-      </c>
-      <c r="C93" t="s">
-        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>184</v>
@@ -3489,7 +3478,7 @@
         <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="D94" t="s">
         <v>184</v>
@@ -3497,13 +3486,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" t="s">
         <v>252</v>
       </c>
-      <c r="B95" t="s">
-        <v>253</v>
-      </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
         <v>184</v>
@@ -3511,13 +3500,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" t="s">
         <v>254</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>255</v>
-      </c>
-      <c r="C96" t="s">
-        <v>94</v>
       </c>
       <c r="D96" t="s">
         <v>184</v>
@@ -3545,7 +3534,7 @@
         <v>260</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
         <v>184</v>
@@ -3559,7 +3548,7 @@
         <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
         <v>184</v>
@@ -3615,7 +3604,7 @@
         <v>273</v>
       </c>
       <c r="C103" t="s">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
         <v>266</v>
@@ -3623,13 +3612,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" t="s">
         <v>275</v>
       </c>
-      <c r="B104" t="s">
-        <v>276</v>
-      </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
         <v>266</v>
@@ -3637,13 +3626,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" t="s">
         <v>277</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>278</v>
-      </c>
-      <c r="C105" t="s">
-        <v>233</v>
       </c>
       <c r="D105" t="s">
         <v>266</v>
@@ -3699,7 +3688,7 @@
         <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>266</v>
@@ -3727,7 +3716,7 @@
         <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
         <v>266</v>
@@ -3735,13 +3724,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" t="s">
         <v>295</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>296</v>
-      </c>
-      <c r="C112" t="s">
-        <v>48</v>
       </c>
       <c r="D112" t="s">
         <v>266</v>
@@ -3755,7 +3744,7 @@
         <v>298</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="D113" t="s">
         <v>266</v>
@@ -3769,7 +3758,7 @@
         <v>300</v>
       </c>
       <c r="C114" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="D114" t="s">
         <v>266</v>
@@ -3783,7 +3772,7 @@
         <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
         <v>266</v>
@@ -3791,13 +3780,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" t="s">
         <v>304</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>305</v>
-      </c>
-      <c r="C116" t="s">
-        <v>134</v>
       </c>
       <c r="D116" t="s">
         <v>266</v>
@@ -3923,7 +3912,7 @@
         <v>327</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D125" t="s">
         <v>266</v>
@@ -4077,7 +4066,7 @@
         <v>354</v>
       </c>
       <c r="C136" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D136" t="s">
         <v>266</v>
@@ -4091,7 +4080,7 @@
         <v>356</v>
       </c>
       <c r="C137" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
         <v>266</v>
@@ -4119,7 +4108,7 @@
         <v>360</v>
       </c>
       <c r="C139" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D139" t="s">
         <v>266</v>
@@ -4133,7 +4122,7 @@
         <v>362</v>
       </c>
       <c r="C140" t="s">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="D140" t="s">
         <v>266</v>
@@ -4147,7 +4136,7 @@
         <v>364</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="D141" t="s">
         <v>266</v>
@@ -4192,21 +4181,21 @@
         <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>371</v>
+      </c>
+      <c r="B145" t="s">
         <v>372</v>
-      </c>
-      <c r="B145" t="s">
-        <v>373</v>
       </c>
       <c r="C145" t="s">
         <v>352</v>
       </c>
       <c r="D145" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4217,10 +4206,10 @@
         <v>375</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="D146" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4231,10 +4220,10 @@
         <v>377</v>
       </c>
       <c r="C147" t="s">
-        <v>317</v>
+        <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4245,24 +4234,24 @@
         <v>379</v>
       </c>
       <c r="C148" t="s">
-        <v>380</v>
+        <v>59</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>380</v>
+      </c>
+      <c r="B149" t="s">
         <v>381</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>382</v>
       </c>
-      <c r="C149" t="s">
-        <v>23</v>
-      </c>
       <c r="D149" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4273,10 +4262,10 @@
         <v>384</v>
       </c>
       <c r="C150" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,7 +4279,7 @@
         <v>168</v>
       </c>
       <c r="D151" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4301,10 +4290,10 @@
         <v>388</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4315,10 +4304,10 @@
         <v>390</v>
       </c>
       <c r="C153" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4329,24 +4318,24 @@
         <v>392</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="D154" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B155" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C155" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,7 +4349,7 @@
         <v>51</v>
       </c>
       <c r="D156" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4374,7 +4363,7 @@
         <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4388,7 +4377,7 @@
         <v>51</v>
       </c>
       <c r="D158" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4399,24 +4388,24 @@
         <v>403</v>
       </c>
       <c r="C159" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="D159" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>404</v>
+      </c>
+      <c r="B160" t="s">
         <v>405</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>406</v>
       </c>
-      <c r="C160" t="s">
-        <v>335</v>
-      </c>
       <c r="D160" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,7 +4419,7 @@
         <v>409</v>
       </c>
       <c r="D161" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,7 +4433,7 @@
         <v>77</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,7 +4447,7 @@
         <v>66</v>
       </c>
       <c r="D163" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4469,10 +4458,10 @@
         <v>415</v>
       </c>
       <c r="C164" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D164" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4483,10 +4472,10 @@
         <v>417</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4497,10 +4486,10 @@
         <v>419</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="D166" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4511,10 +4500,10 @@
         <v>421</v>
       </c>
       <c r="C167" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,7 +4517,7 @@
         <v>424</v>
       </c>
       <c r="D168" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4539,10 +4528,10 @@
         <v>426</v>
       </c>
       <c r="C169" t="s">
-        <v>134</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4553,10 +4542,10 @@
         <v>428</v>
       </c>
       <c r="C170" t="s">
-        <v>424</v>
+        <v>134</v>
       </c>
       <c r="D170" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4567,10 +4556,10 @@
         <v>430</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="D171" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4581,10 +4570,10 @@
         <v>432</v>
       </c>
       <c r="C172" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,7 +4587,7 @@
         <v>131</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,7 +4601,7 @@
         <v>45</v>
       </c>
       <c r="D174" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4623,10 +4612,10 @@
         <v>438</v>
       </c>
       <c r="C175" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D175" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,7 +4629,7 @@
         <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4651,10 +4640,10 @@
         <v>442</v>
       </c>
       <c r="C177" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D177" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,7 +4657,7 @@
         <v>445</v>
       </c>
       <c r="D178" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4679,10 +4668,10 @@
         <v>447</v>
       </c>
       <c r="C179" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D179" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4693,10 +4682,10 @@
         <v>449</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D180" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,7 +4699,7 @@
         <v>349</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,7 +4713,7 @@
         <v>134</v>
       </c>
       <c r="D182" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4735,10 +4724,10 @@
         <v>455</v>
       </c>
       <c r="C183" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="D183" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4749,10 +4738,10 @@
         <v>457</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="D184" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,7 +4755,7 @@
         <v>83</v>
       </c>
       <c r="D185" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4777,38 +4766,38 @@
         <v>461</v>
       </c>
       <c r="C186" t="s">
-        <v>462</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>462</v>
+      </c>
+      <c r="B187" t="s">
         <v>463</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>464</v>
       </c>
-      <c r="C187" t="s">
-        <v>465</v>
-      </c>
       <c r="D187" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>465</v>
+      </c>
+      <c r="B188" t="s">
         <v>466</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>467</v>
       </c>
-      <c r="C188" t="s">
-        <v>83</v>
-      </c>
       <c r="D188" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4819,38 +4808,38 @@
         <v>469</v>
       </c>
       <c r="C189" t="s">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="D189" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>470</v>
+      </c>
+      <c r="B190" t="s">
         <v>471</v>
-      </c>
-      <c r="B190" t="s">
-        <v>472</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>472</v>
+      </c>
+      <c r="B191" t="s">
         <v>473</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>474</v>
       </c>
-      <c r="C191" t="s">
-        <v>104</v>
-      </c>
       <c r="D191" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,7 +4853,7 @@
         <v>59</v>
       </c>
       <c r="D192" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,7 +4867,7 @@
         <v>479</v>
       </c>
       <c r="D193" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,7 +4881,7 @@
         <v>223</v>
       </c>
       <c r="D194" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4903,24 +4892,24 @@
         <v>483</v>
       </c>
       <c r="C195" t="s">
-        <v>484</v>
+        <v>27</v>
       </c>
       <c r="D195" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>484</v>
+      </c>
+      <c r="B196" t="s">
         <v>485</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>486</v>
       </c>
-      <c r="C196" t="s">
-        <v>404</v>
-      </c>
       <c r="D196" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4931,10 +4920,10 @@
         <v>488</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>406</v>
       </c>
       <c r="D197" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,7 +4937,7 @@
         <v>83</v>
       </c>
       <c r="D198" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4959,10 +4948,10 @@
         <v>492</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="D199" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4973,10 +4962,10 @@
         <v>494</v>
       </c>
       <c r="C200" t="s">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="D200" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4987,10 +4976,10 @@
         <v>496</v>
       </c>
       <c r="C201" t="s">
-        <v>409</v>
+        <v>198</v>
       </c>
       <c r="D201" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5001,10 +4990,10 @@
         <v>498</v>
       </c>
       <c r="C202" t="s">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="D202" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,7 +5007,7 @@
         <v>48</v>
       </c>
       <c r="D203" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,7 +5021,7 @@
         <v>33</v>
       </c>
       <c r="D204" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5043,10 +5032,10 @@
         <v>504</v>
       </c>
       <c r="C205" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D205" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5057,10 +5046,10 @@
         <v>506</v>
       </c>
       <c r="C206" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D206" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5071,10 +5060,10 @@
         <v>508</v>
       </c>
       <c r="C207" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D207" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5085,24 +5074,24 @@
         <v>510</v>
       </c>
       <c r="C208" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D208" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>511</v>
+      </c>
+      <c r="B209" t="s">
         <v>512</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>513</v>
       </c>
-      <c r="C209" t="s">
-        <v>479</v>
-      </c>
       <c r="D209" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5113,10 +5102,10 @@
         <v>515</v>
       </c>
       <c r="C210" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D210" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5141,7 +5130,7 @@
         <v>520</v>
       </c>
       <c r="C212" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D212" t="s">
         <v>518</v>
@@ -5183,7 +5172,7 @@
         <v>526</v>
       </c>
       <c r="C215" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D215" t="s">
         <v>518</v>
@@ -5197,7 +5186,7 @@
         <v>528</v>
       </c>
       <c r="C216" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="D216" t="s">
         <v>518</v>
@@ -5211,7 +5200,7 @@
         <v>530</v>
       </c>
       <c r="C217" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="D217" t="s">
         <v>518</v>
@@ -5225,7 +5214,7 @@
         <v>532</v>
       </c>
       <c r="C218" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D218" t="s">
         <v>518</v>
@@ -5253,7 +5242,7 @@
         <v>536</v>
       </c>
       <c r="C220" t="s">
-        <v>537</v>
+        <v>305</v>
       </c>
       <c r="D220" t="s">
         <v>518</v>
@@ -5261,13 +5250,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>537</v>
+      </c>
+      <c r="B221" t="s">
         <v>538</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>539</v>
-      </c>
-      <c r="C221" t="s">
-        <v>303</v>
       </c>
       <c r="D221" t="s">
         <v>518</v>
@@ -5295,7 +5284,7 @@
         <v>543</v>
       </c>
       <c r="C223" t="s">
-        <v>404</v>
+        <v>243</v>
       </c>
       <c r="D223" t="s">
         <v>518</v>
@@ -5309,7 +5298,7 @@
         <v>545</v>
       </c>
       <c r="C224" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="D224" t="s">
         <v>518</v>
@@ -5351,7 +5340,7 @@
         <v>551</v>
       </c>
       <c r="C227" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D227" t="s">
         <v>518</v>
@@ -5379,7 +5368,7 @@
         <v>555</v>
       </c>
       <c r="C229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D229" t="s">
         <v>518</v>
@@ -5407,7 +5396,7 @@
         <v>559</v>
       </c>
       <c r="C231" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="D231" t="s">
         <v>518</v>
@@ -5421,7 +5410,7 @@
         <v>561</v>
       </c>
       <c r="C232" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D232" t="s">
         <v>518</v>
@@ -5435,7 +5424,7 @@
         <v>563</v>
       </c>
       <c r="C233" t="s">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="D233" t="s">
         <v>518</v>
@@ -5463,7 +5452,7 @@
         <v>567</v>
       </c>
       <c r="C235" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="D235" t="s">
         <v>518</v>
@@ -5477,7 +5466,7 @@
         <v>569</v>
       </c>
       <c r="C236" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D236" t="s">
         <v>518</v>
@@ -5491,7 +5480,7 @@
         <v>571</v>
       </c>
       <c r="C237" t="s">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="D237" t="s">
         <v>518</v>
@@ -5505,7 +5494,7 @@
         <v>573</v>
       </c>
       <c r="C238" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="D238" t="s">
         <v>518</v>
@@ -5533,7 +5522,7 @@
         <v>578</v>
       </c>
       <c r="C240" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="D240" t="s">
         <v>518</v>
@@ -5547,7 +5536,7 @@
         <v>580</v>
       </c>
       <c r="C241" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="D241" t="s">
         <v>518</v>
@@ -5561,7 +5550,7 @@
         <v>582</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="D242" t="s">
         <v>518</v>
@@ -5589,7 +5578,7 @@
         <v>587</v>
       </c>
       <c r="C244" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="D244" t="s">
         <v>518</v>
@@ -5631,7 +5620,7 @@
         <v>593</v>
       </c>
       <c r="C247" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="D247" t="s">
         <v>518</v>
@@ -5645,7 +5634,7 @@
         <v>595</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D248" t="s">
         <v>518</v>
@@ -5659,7 +5648,7 @@
         <v>597</v>
       </c>
       <c r="C249" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D249" t="s">
         <v>518</v>
@@ -5673,7 +5662,7 @@
         <v>599</v>
       </c>
       <c r="C250" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="D250" t="s">
         <v>518</v>
@@ -5687,7 +5676,7 @@
         <v>601</v>
       </c>
       <c r="C251" t="s">
-        <v>395</v>
+        <v>56</v>
       </c>
       <c r="D251" t="s">
         <v>518</v>

--- a/IMDB/IMDB Movie Ratings.xlsx
+++ b/IMDB/IMDB Movie Ratings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="528" windowWidth="22716" windowHeight="9732"/>
+    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Top rated Movies" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>Goodfellas</t>
+    <t>GoodFellas</t>
   </si>
   <si>
     <t>1990</t>
@@ -310,18 +310,18 @@
     <t>32</t>
   </si>
   <si>
+    <t>The Pianist</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>Psycho</t>
   </si>
   <si>
     <t>1960</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>The Pianist</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -697,18 +697,18 @@
     <t>84</t>
   </si>
   <si>
+    <t>3 Idiots</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>Singin' in the Rain</t>
   </si>
   <si>
     <t>1952</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>3 Idiots</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -874,18 +874,18 @@
     <t>107</t>
   </si>
   <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Scarface</t>
-  </si>
-  <si>
     <t>109</t>
   </si>
   <si>
@@ -1141,15 +1141,15 @@
     <t>145</t>
   </si>
   <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>The Treasure of the Sierra Madre</t>
   </si>
   <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
     <t>147</t>
   </si>
   <si>
@@ -1240,18 +1240,18 @@
     <t>160</t>
   </si>
   <si>
+    <t>Lock, Stock and Two Smoking Barrels</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>Inside Out</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Lock, Stock and Two Smoking Barrels</t>
-  </si>
-  <si>
     <t>162</t>
   </si>
   <si>
@@ -1363,15 +1363,15 @@
     <t>179</t>
   </si>
   <si>
+    <t>12 Years a Slave</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>On the Waterfront</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>12 Years a Slave</t>
-  </si>
-  <si>
     <t>181</t>
   </si>
   <si>
@@ -1405,13 +1405,19 @@
     <t>186</t>
   </si>
   <si>
+    <t>The Grand Budapest Hotel</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
     <t>The General</t>
   </si>
   <si>
     <t>1926</t>
   </si>
   <si>
-    <t>187</t>
+    <t>188</t>
   </si>
   <si>
     <t>The Third Man</t>
@@ -1420,12 +1426,6 @@
     <t>1949</t>
   </si>
   <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>The Grand Budapest Hotel</t>
-  </si>
-  <si>
     <t>189</t>
   </si>
   <si>
@@ -1471,18 +1471,18 @@
     <t>195</t>
   </si>
   <si>
+    <t>Mr. Smith Goes to Washington</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>Sherlock Jr.</t>
   </si>
   <si>
     <t>1924</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Mr. Smith Goes to Washington</t>
-  </si>
-  <si>
     <t>197</t>
   </si>
   <si>
@@ -1594,15 +1594,15 @@
     <t>214</t>
   </si>
   <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
     <t>The Terminator</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
     <t>216</t>
   </si>
   <si>
@@ -1675,15 +1675,15 @@
     <t>227</t>
   </si>
   <si>
+    <t>The Incredibles</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
     <t>To Be or Not to Be</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>The Incredibles</t>
-  </si>
-  <si>
     <t>229</t>
   </si>
   <si>
@@ -1705,21 +1705,21 @@
     <t>232</t>
   </si>
   <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Babam ve Oglum</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Jai Bhim</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Babam ve Oglum</t>
-  </si>
-  <si>
     <t>235</t>
   </si>
   <si>
@@ -1789,13 +1789,13 @@
     <t>245</t>
   </si>
   <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
     <t>Dersu Uzala</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
   </si>
   <si>
     <t>247</t>
@@ -2162,10 +2162,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,7 +2623,7 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>89</v>
@@ -2632,13 +2631,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>89</v>
@@ -3352,7 +3351,7 @@
         <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
         <v>184</v>
@@ -3360,13 +3359,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" t="s">
         <v>229</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>230</v>
-      </c>
-      <c r="C86" t="s">
-        <v>198</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3604,7 +3603,7 @@
         <v>273</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
         <v>266</v>
@@ -3618,7 +3617,7 @@
         <v>275</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
         <v>266</v>
@@ -3674,7 +3673,7 @@
         <v>286</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
         <v>266</v>
@@ -3682,13 +3681,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109" t="s">
         <v>288</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>289</v>
-      </c>
-      <c r="C109" t="s">
-        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>266</v>
@@ -3996,7 +3995,7 @@
         <v>342</v>
       </c>
       <c r="C131" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D131" t="s">
         <v>266</v>
@@ -4206,7 +4205,7 @@
         <v>375</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="D146" t="s">
         <v>373</v>
@@ -4220,7 +4219,7 @@
         <v>377</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="D147" t="s">
         <v>373</v>
@@ -4416,7 +4415,7 @@
         <v>408</v>
       </c>
       <c r="C161" t="s">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="D161" t="s">
         <v>373</v>
@@ -4424,13 +4423,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>409</v>
+      </c>
+      <c r="B162" t="s">
         <v>410</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>411</v>
-      </c>
-      <c r="C162" t="s">
-        <v>77</v>
       </c>
       <c r="D162" t="s">
         <v>373</v>
@@ -4682,7 +4681,7 @@
         <v>449</v>
       </c>
       <c r="C180" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="D180" t="s">
         <v>373</v>
@@ -4696,7 +4695,7 @@
         <v>451</v>
       </c>
       <c r="C181" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="D181" t="s">
         <v>373</v>
@@ -4780,7 +4779,7 @@
         <v>463</v>
       </c>
       <c r="C187" t="s">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="D187" t="s">
         <v>373</v>
@@ -4788,13 +4787,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>464</v>
+      </c>
+      <c r="B188" t="s">
         <v>465</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>466</v>
-      </c>
-      <c r="C188" t="s">
-        <v>467</v>
       </c>
       <c r="D188" t="s">
         <v>373</v>
@@ -4802,13 +4801,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>467</v>
+      </c>
+      <c r="B189" t="s">
         <v>468</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>469</v>
-      </c>
-      <c r="C189" t="s">
-        <v>83</v>
       </c>
       <c r="D189" t="s">
         <v>373</v>
@@ -4906,7 +4905,7 @@
         <v>485</v>
       </c>
       <c r="C196" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="D196" t="s">
         <v>373</v>
@@ -4914,13 +4913,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>486</v>
+      </c>
+      <c r="B197" t="s">
         <v>487</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>488</v>
-      </c>
-      <c r="C197" t="s">
-        <v>406</v>
       </c>
       <c r="D197" t="s">
         <v>373</v>
@@ -4948,7 +4947,7 @@
         <v>492</v>
       </c>
       <c r="C199" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D199" t="s">
         <v>373</v>
@@ -4990,7 +4989,7 @@
         <v>498</v>
       </c>
       <c r="C202" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D202" t="s">
         <v>373</v>
@@ -5158,7 +5157,7 @@
         <v>524</v>
       </c>
       <c r="C214" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D214" t="s">
         <v>518</v>
@@ -5172,7 +5171,7 @@
         <v>526</v>
       </c>
       <c r="C215" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="D215" t="s">
         <v>518</v>
@@ -5186,7 +5185,7 @@
         <v>528</v>
       </c>
       <c r="C216" t="s">
-        <v>323</v>
+        <v>201</v>
       </c>
       <c r="D216" t="s">
         <v>518</v>
@@ -5354,7 +5353,7 @@
         <v>553</v>
       </c>
       <c r="C228" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="D228" t="s">
         <v>518</v>
@@ -5368,7 +5367,7 @@
         <v>555</v>
       </c>
       <c r="C229" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D229" t="s">
         <v>518</v>
@@ -5424,7 +5423,7 @@
         <v>563</v>
       </c>
       <c r="C233" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="D233" t="s">
         <v>518</v>
@@ -5438,7 +5437,7 @@
         <v>565</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="D234" t="s">
         <v>518</v>
@@ -5452,7 +5451,7 @@
         <v>567</v>
       </c>
       <c r="C235" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="D235" t="s">
         <v>518</v>
@@ -5606,7 +5605,7 @@
         <v>591</v>
       </c>
       <c r="C246" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D246" t="s">
         <v>518</v>
@@ -5620,7 +5619,7 @@
         <v>593</v>
       </c>
       <c r="C247" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D247" t="s">
         <v>518</v>
